--- a/cfs_3_0.4.xlsx
+++ b/cfs_3_0.4.xlsx
@@ -4763,7 +4763,7 @@
         <v>24.75</v>
       </c>
       <c r="I57" t="n">
-        <v>219283.9</v>
+        <v>219283</v>
       </c>
       <c r="J57" t="n">
         <v>193061</v>
@@ -4778,7 +4778,7 @@
         <v>193061</v>
       </c>
       <c r="N57" t="n">
-        <v>219283.9</v>
+        <v>219283</v>
       </c>
       <c r="O57" t="n">
         <v>202477</v>
@@ -5483,7 +5483,7 @@
         <v>3</v>
       </c>
       <c r="U66" t="n">
-        <v>57.2</v>
+        <v>57</v>
       </c>
       <c r="V66" t="n">
         <v>4</v>
@@ -6018,7 +6018,7 @@
         <v>61</v>
       </c>
       <c r="V73" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="W73" t="n">
         <v>3</v>
@@ -6100,7 +6100,7 @@
         <v>3</v>
       </c>
       <c r="X74" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
@@ -6708,7 +6708,7 @@
         <v>3</v>
       </c>
       <c r="X82" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
@@ -7465,7 +7465,7 @@
         <v>4</v>
       </c>
       <c r="W92" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="X92" t="n">
         <v>3</v>
@@ -7754,7 +7754,7 @@
         <v>41</v>
       </c>
       <c r="R96" t="n">
-        <v>66.40000000000001</v>
+        <v>66</v>
       </c>
       <c r="S96" t="n">
         <v>1</v>
